--- a/xlsx/子域名_intext.xlsx
+++ b/xlsx/子域名_intext.xlsx
@@ -29,7 +29,7 @@
     <t>域名系统</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_子域名</t>
+    <t>政策_政策_维基百科_子域名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B6%E7%BA%A7%E5%9F%9F</t>
